--- a/data/trans_dic/P50_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P50_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con cierta dificultad o más para llegar a fin de mes</t>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,93%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>29,1%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>47,4%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>35,85%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>29,73%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>31,71%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>31,34%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30,99%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33,61%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>46,56%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51,42%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>34,87%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>30,3%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>29,98%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>29,2%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>29,96%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>29,95%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>29,46%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>31,47%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>46,97%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>49,83%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 37,8</t>
+          <t>29,61; 37,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,67; 36,59</t>
+          <t>26,25; 35,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,46; 32,18</t>
+          <t>24,66; 32,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,8; 32,17</t>
+          <t>23,96; 32,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,8; 51,81</t>
+          <t>24,72; 33,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,46; 39,54</t>
+          <t>43,71; 51,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,53; 33,88</t>
+          <t>43,79; 51,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,25; 34,87</t>
+          <t>32,4; 38,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,28; 34,28</t>
+          <t>25,66; 32,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,78; 50,59</t>
+          <t>27,92; 34,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,19; 37,47</t>
+          <t>27,5; 34,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>27,28; 33,12</t>
+          <t>29,42; 37,57</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>27,55; 32,33</t>
+          <t>42,71; 50,18</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>26,59; 32,01</t>
+          <t>47,65; 54,94</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>44,61; 49,69</t>
+          <t>32,43; 37,26</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>27,1; 33,09</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>27,61; 32,36</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>27,15; 32,72</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>28,04; 34,26</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>44,06; 49,44</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>47,39; 52,46</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>36,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43,23%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>39,21%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>36,55%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>36,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33,35%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,06%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>44,14%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>42,8%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>36,52%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>32,02%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>34,26%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>32,64%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>40,03%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>33,92%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>32,73%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>35,35%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>43,02%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,83; 38,49</t>
+          <t>29,63; 38,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,81; 35,86</t>
+          <t>25,43; 35,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,39; 37,14</t>
+          <t>27,15; 36,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,44; 37,65</t>
+          <t>27,22; 37,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,51; 43,98</t>
+          <t>27,18; 37,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,32; 43,39</t>
+          <t>29,95; 42,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,32; 38,35</t>
+          <t>36,78; 51,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,06; 40,89</t>
+          <t>34,71; 43,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,34; 37,23</t>
+          <t>29,79; 38,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,39; 50,81</t>
+          <t>32,78; 40,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,39; 39,55</t>
+          <t>29,34; 37,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 35,82</t>
+          <t>33,47; 43,74</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>31,18; 37,33</t>
+          <t>37,43; 51,51</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,57; 36,01</t>
+          <t>35,98; 49,61</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>35,37; 44,61</t>
+          <t>33,77; 39,63</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>28,99; 35,49</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>31,0; 37,12</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>29,79; 36,32</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>31,72; 39,05</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>35,54; 45,17</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>37,71; 47,63</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>30,2%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>43,19%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>43,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>38,37%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34,32%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35,35%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>38,38%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>26,73%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>35,21%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>38,39%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>27,67%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>35,1%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>31,34%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>32,76%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,22; 45,13</t>
+          <t>25,01; 46,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 33,78</t>
+          <t>16,92; 32,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,07; 41,49</t>
+          <t>24,03; 39,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,77; 39,39</t>
+          <t>20,64; 39,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>19,87; 39,66</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>36,15; 51,04</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,36; 36,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,24; 45,28</t>
+          <t>36,03; 51,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,02; 41,81</t>
+          <t>23,9; 39,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>30,52; 45,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27,33; 42,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27,2; 46,87</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>32,57; 44,8</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>21,59; 33,19</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>29,63; 41,39</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>25,31; 36,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>32,97; 45,21</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>22,21; 33,91</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>29,48; 40,55</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>25,95; 38,77</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>25,75; 39,4</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>44,74%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>46,97%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>37,99%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>31,23%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>34,29%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>34,11%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35,52%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>46,04%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>49,53%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>35,94%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>30,56%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>32,26%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>30,76%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>33,16%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>45,39%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>48,26%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,12; 36,66</t>
+          <t>31,03; 36,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,83; 33,52</t>
+          <t>26,92; 32,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,33; 33,12</t>
+          <t>27,23; 32,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,26; 32,59</t>
+          <t>26,7; 33,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,42; 48,32</t>
+          <t>27,52; 34,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,28; 40,39</t>
+          <t>41,05; 48,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,52; 34,16</t>
+          <t>43,74; 50,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,98; 36,99</t>
+          <t>35,54; 40,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,72; 34,65</t>
+          <t>28,92; 33,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42,48; 49,18</t>
+          <t>31,46; 36,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,07; 38,0</t>
+          <t>29,94; 34,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,66; 32,75</t>
+          <t>32,45; 38,71</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>30,39; 34,09</t>
+          <t>42,74; 49,16</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>28,85; 32,81</t>
+          <t>46,74; 52,51</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>42,89; 47,67</t>
+          <t>33,77; 37,81</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>28,57; 32,63</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>30,36; 34,01</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>29,17; 33,14</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>30,61; 35,46</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>43,2; 47,87</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>45,91; 50,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,21%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>446.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>729.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>764.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>541610</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>504761</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>463101</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>455624</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>464367</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>107180</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>107448</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>625327</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>523295</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>557362</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>556044</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>592390</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>108839</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>119691</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1166938</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1028056</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1020463</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1011668</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1056756</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>216019</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>227139</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>474472; 602217</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>432222; 584901</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>401827; 526871</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>392857; 539921</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>394492; 541628</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>98855; 116374</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97690; 115764</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>565103; 679169</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>457964; 582998</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>496503; 615699</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>493272; 613116</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>518563; 662163</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>99841; 117307</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>110906; 127871</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1085177; 1246901</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>930081; 1135600</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>940925; 1102842</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>932273; 1123520</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>941830; 1150447</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>202625; 227354</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>216020; 239146</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>420.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>465128</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>413317</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>422605</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>436890</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>449785</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25965</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30760</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>536811</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>469864</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>492661</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>454444</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>518260</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>28159</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>28019</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1001939</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>883181</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>915265</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>891333</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>968045</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>54124</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>58779</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>407304; 527299</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>346566; 489301</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>366298; 488495</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>370283; 514854</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>374031; 519232</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21398; 30594</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26169; 36414</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>475212; 593836</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>413650; 541253</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>442250; 543337</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>399771; 508676</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>455778; 595697</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>23878; 32862</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>23559; 32478</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>926480; 1087232</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>797484; 976420</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>836376; 1001470</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>811269; 988862</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>868528; 1069323</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>48058; 61086</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>51523; 65073</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>138901</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>102952</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>129210</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>117502</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>123931</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>170880</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>125216</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>152569</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>137946</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>143947</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>309781</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>228168</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>281779</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>255448</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>267879</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>102882; 189295</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>71534; 139437</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97330; 161433</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>85273; 163398</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81532; 162738</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>142517; 203529</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>96027; 158622</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>121374; 182462</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>109884; 170377</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>110754; 190842</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>266065; 364836</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>183188; 279630</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>236666; 325474</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>211558; 316017</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>210515; 322103</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>545.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>517.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>546.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1032.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>744.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>946.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>895.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>753.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>917.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>968.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1145640</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1021030</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1014916</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1010017</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1038083</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>133145</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>138207</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1333018</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1118375</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1202592</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1148433</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1254597</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>136998</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>147711</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2478658</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2139405</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>2217508</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2158450</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>2292680</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>270143</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>285918</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1051524; 1241007</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>923957; 1126434</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>921275; 1105092</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>911328; 1132743</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>930747; 1150662</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>122147; 142978</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>128686; 148584</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1247201; 1428353</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1033800; 1213733</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1108909; 1277220</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1065310; 1244792</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1145853; 1366932</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>127167; 146288</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>139406; 156597</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2329314; 2607580</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2002207; 2286533</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2097774; 2349976</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2033742; 2310628</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>2116663; 2452041</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>257073; 284866</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>271987; 299472</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
